--- a/biology/Mycologie/Tylopilus_felleus/Tylopilus_felleus.xlsx
+++ b/biology/Mycologie/Tylopilus_felleus/Tylopilus_felleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet amer
 Tylopilus felleus, le Bolet amer, Bolet de fiel, Chicotin ou Faux cèpe est une espèce de champignon basidiomycète de la famille des Boletaceae. Son amertume le rend immangeable. Il est caractérisé par son pied orné d'un réseau sombre, ses pores devenant rosées avec l'âge et sa saveur amère.
@@ -512,13 +524,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Tylopilus felleus (Bull.) P.Karst.[1]
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus felleus Bull.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : bolet amer[2], bolet de fiel[2], chicotin[2].
-Synonymes
-Tylopilus felleus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Tylopilus felleus (Bull.) P.Karst.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus felleus Bull..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : bolet amer, bolet de fiel, chicotin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tylopilus felleus a pour synonymes :
 Boletus alutarius Fr.
 Boletus alutarius Rostk.
 Boletus felleus f. albiceps Kauffman &amp; Snell
@@ -540,7 +589,43 @@
 Tylopilus felleus var. fuscescens P.Karst.
 Tylopilus felleus var. uliginosus A.H.Sm. &amp; Thiers
 Tylopius alutarius (Fr.) Hennig
-Classification phylogénique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification phylogénique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Boletaceae (clade ou sous-groupe des Boletineae)
 ..
 Phylloporus
@@ -554,102 +639,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tylopilus_felleus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tylopilus_felleus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hyménophore (chapeau), mesure de 4 à 15 (jusqu'à 20) cm de diamètre, est hémisphérique puis étalé. Il est similaire aux chapeaux des bolets du groupe edulis[3]. La cuticule est de couleur brun clair à brun foncé, bistre aux lésions. La marge est épaisse, excédante.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hyménophore (chapeau), mesure de 4 à 15 (jusqu'à 20) cm de diamètre, est hémisphérique puis étalé. Il est similaire aux chapeaux des bolets du groupe edulis. La cuticule est de couleur brun clair à brun foncé, bistre aux lésions. La marge est épaisse, excédante.
 Les tubes de l'hyménium, blanc crème à rose carné, ont des pores arrondis puis anguleux virant au rose sale par la sporée, qui est brun rosé.
 Le stipe mesure 3 à 15 cm de longueur, sa forme est bulbeuse puis allongée et souvent courbée, blanc crème à la base à brun-roux au sommet, et présente un réseau de nervures saillantes plus foncées.
 La chair est épaisse, blanche, d'odeur agréable, mais à la saveur amère, surtout après cuisson.
-sporée : spores fusiformes, lisses, 12-15,5 x 4-5 µ[4] ;
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tylopilus_felleus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tylopilus_felleus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Formes et variétés</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tylopilus felleus var. alutarius est plus sombre, moins réticulée et de saveur subdouce, très peu ou pas amère. Sous conifères de montagne[5].
-Tylopilus felleus var. fuscescens, a la chair bleuissante au-dessus des tubes et sous le cortex du stipe[6].
-Tylopilus felleus var. minor, à carpophore et spores plus petits que le type[6].
-Tylopilus felleus var. gracilis[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tylopilus_felleus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tylopilus_felleus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve principalement dans les forêts de feuillus. T. felleus y préfère les chênes et hêtres, son mode de vie étant ectomycorhizien.
-Les bois de résineux peuvent également l'accueillir : pin, épicéa commun[4].
+sporée : spores fusiformes, lisses, 12-15,5 x 4-5 µ ;
 </t>
         </is>
       </c>
@@ -675,13 +697,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la cuisson, l'amertume du champignon se renforce et peut rendre tout un plat inconsommable, voire provoquer vomissements ou indigestions. C'est une espèce à rejeter. Il contient de la muscarine, mais à des doses trop faibles pour être dangereuses[7]. Il n'est cependant pas toxique[4].
-</t>
+          <t>Formes et variétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tylopilus felleus var. alutarius est plus sombre, moins réticulée et de saveur subdouce, très peu ou pas amère. Sous conifères de montagne.
+Tylopilus felleus var. fuscescens, a la chair bleuissante au-dessus des tubes et sous le cortex du stipe.
+Tylopilus felleus var. minor, à carpophore et spores plus petits que le type.
+Tylopilus felleus var. gracilis</t>
         </is>
       </c>
     </row>
@@ -706,13 +732,82 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve principalement dans les forêts de feuillus. T. felleus y préfère les chênes et hêtres, son mode de vie étant ectomycorhizien.
+Les bois de résineux peuvent également l'accueillir : pin, épicéa commun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la cuisson, l'amertume du champignon se renforce et peut rendre tout un plat inconsommable, voire provoquer vomissements ou indigestions. C'est une espèce à rejeter. Il contient de la muscarine, mais à des doses trop faibles pour être dangereuses. Il n'est cependant pas toxique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tylopilus_felleus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Boletus edulisTylopilus felleus
-Le Bolet amer peut se confondre avec des bolets du genre Boletus et notamment avec le Cèpe de Bordeaux, Boletus edulis[4] et le Cèpe d'été, Boletus reticulatus.
+Le Bolet amer peut se confondre avec des bolets du genre Boletus et notamment avec le Cèpe de Bordeaux, Boletus edulis et le Cèpe d'été, Boletus reticulatus.
 Mis à part la saveur (mâcher puis recracher un morceau), à l'amertume généralement discernable sur les exemplaires crus de Tylopilus felleus (sauf pour la var. alutarius), les principales différences sont :
 La couleur des pores, qui sont d'abord blancs, jaunes puis vert-olivâtre chez le cèpe de Bordeaux (et toutes les espèces de Cèpes au sens strict en général) mais chez le bolet amer qui sont d'abord blancs puis qui deviennent bistre-rose sale à maturité. Rendant l'identification des jeunes spécimens plus ardues pour cause du manque de ce critère.
 et surtout le réseau sur le pied, fin et blanchâtre chez le cèpe de Bordeaux, et chez le bolet amer, nettement saillant, grossier et plus foncé.</t>
